--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H2">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I2">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J2">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.08889552858500001</v>
+        <v>1.92124855154925</v>
       </c>
       <c r="R2">
-        <v>0.35558211434</v>
+        <v>7.684994206197001</v>
       </c>
       <c r="S2">
-        <v>0.0008056944732204224</v>
+        <v>0.008932607568954613</v>
       </c>
       <c r="T2">
-        <v>0.0004512151633437492</v>
+        <v>0.004773568302820556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H3">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I3">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J3">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>7.816101996037502</v>
+        <v>35.9224545579075</v>
       </c>
       <c r="R3">
-        <v>46.89661197622501</v>
+        <v>215.534727347445</v>
       </c>
       <c r="S3">
-        <v>0.0708403479969535</v>
+        <v>0.1670170104855208</v>
       </c>
       <c r="T3">
-        <v>0.05950935544774789</v>
+        <v>0.133880353714929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H4">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I4">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J4">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.06320358086166668</v>
+        <v>0.1996119120765</v>
       </c>
       <c r="R4">
-        <v>0.3792214851700001</v>
+        <v>1.197671472459</v>
       </c>
       <c r="S4">
-        <v>0.0005728384385418625</v>
+        <v>0.0009280709022423114</v>
       </c>
       <c r="T4">
-        <v>0.0004812122923900175</v>
+        <v>0.0007439389574962222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H5">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I5">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J5">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>3.41605639761625</v>
+        <v>9.36932443830675</v>
       </c>
       <c r="R5">
-        <v>13.664225590465</v>
+        <v>37.477297753227</v>
       </c>
       <c r="S5">
-        <v>0.03096103711377328</v>
+        <v>0.04356151541461026</v>
       </c>
       <c r="T5">
-        <v>0.01733918983301893</v>
+        <v>0.02327919004622166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H6">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I6">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J6">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>0.1605313045758333</v>
+        <v>1.3358768726325</v>
       </c>
       <c r="R6">
-        <v>0.9631878274550001</v>
+        <v>8.015261235794998</v>
       </c>
       <c r="S6">
-        <v>0.001454957149525714</v>
+        <v>0.006210994331808916</v>
       </c>
       <c r="T6">
-        <v>0.001222235133233554</v>
+        <v>0.004978715135941706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H7">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I7">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J7">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.04432696635666667</v>
+        <v>0.07865371682400001</v>
       </c>
       <c r="R7">
-        <v>0.26596179814</v>
+        <v>0.471922300944</v>
       </c>
       <c r="S7">
-        <v>0.0004017523983115189</v>
+        <v>0.0003656907304689592</v>
       </c>
       <c r="T7">
-        <v>0.0003374916548141962</v>
+        <v>0.000293136634425027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.39932</v>
       </c>
       <c r="I8">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J8">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.07584870429333333</v>
+        <v>0.3566777486066667</v>
       </c>
       <c r="R8">
-        <v>0.45509222576</v>
+        <v>2.14006649164</v>
       </c>
       <c r="S8">
-        <v>0.0006874460709419808</v>
+        <v>0.001658329087255491</v>
       </c>
       <c r="T8">
-        <v>0.00057748830636184</v>
+        <v>0.001329311811605967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.39932</v>
       </c>
       <c r="I9">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J9">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>6.668965452600002</v>
+        <v>6.668965452600001</v>
       </c>
       <c r="R9">
-        <v>60.02068907340001</v>
+        <v>60.0206890734</v>
       </c>
       <c r="S9">
-        <v>0.06044340691579402</v>
+        <v>0.03100653022273184</v>
       </c>
       <c r="T9">
-        <v>0.07616312500567197</v>
+        <v>0.03728211774619074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.39932</v>
       </c>
       <c r="I10">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J10">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.05392745609777779</v>
+        <v>0.03705773900888889</v>
       </c>
       <c r="R10">
-        <v>0.48534710488</v>
+        <v>0.33351965108</v>
       </c>
       <c r="S10">
-        <v>0.0004887653408941877</v>
+        <v>0.0001722953751570649</v>
       </c>
       <c r="T10">
-        <v>0.0006158801705010553</v>
+        <v>0.0002071672134091453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.39932</v>
       </c>
       <c r="I11">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J11">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>2.914696112126667</v>
+        <v>1.739405109206667</v>
       </c>
       <c r="R11">
-        <v>17.48817667276</v>
+        <v>10.43643065524</v>
       </c>
       <c r="S11">
-        <v>0.02641701541165889</v>
+        <v>0.008087148969584793</v>
       </c>
       <c r="T11">
-        <v>0.02219158437884367</v>
+        <v>0.006482635280357857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.39932</v>
       </c>
       <c r="I12">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J12">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.1369707975688889</v>
+        <v>0.2480041194888889</v>
       </c>
       <c r="R12">
-        <v>1.23273717812</v>
+        <v>2.2320370754</v>
       </c>
       <c r="S12">
-        <v>0.001241419184411806</v>
+        <v>0.001153064486680803</v>
       </c>
       <c r="T12">
-        <v>0.00156427920514999</v>
+        <v>0.001386439748420104</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,40 +1231,40 @@
         <v>0.39932</v>
       </c>
       <c r="I13">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J13">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.03782128321777778</v>
+        <v>0.01460197880888889</v>
       </c>
       <c r="R13">
-        <v>0.34039154896</v>
+        <v>0.13141780928</v>
       </c>
       <c r="S13">
-        <v>0.0003427888820024375</v>
+        <v>6.789009486816113E-05</v>
       </c>
       <c r="T13">
-        <v>0.0004319391278998888</v>
+        <v>8.163075624692847E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H14">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I14">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J14">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.225545425706</v>
+        <v>0.9522756387246666</v>
       </c>
       <c r="R14">
-        <v>1.353272554236</v>
+        <v>5.713653832348</v>
       </c>
       <c r="S14">
-        <v>0.002044205213063266</v>
+        <v>0.004427487828861996</v>
       </c>
       <c r="T14">
-        <v>0.001717232312827608</v>
+        <v>0.00354906146908895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H15">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I15">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J15">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>19.830986778735</v>
+        <v>17.80512902982</v>
       </c>
       <c r="R15">
-        <v>178.478881008615</v>
+        <v>160.24616126838</v>
       </c>
       <c r="S15">
-        <v>0.1797358843629183</v>
+        <v>0.08278274573570006</v>
       </c>
       <c r="T15">
-        <v>0.226480394260518</v>
+        <v>0.09953761519593272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H16">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I16">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J16">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.1603599053686667</v>
+        <v>0.0989385579062222</v>
       </c>
       <c r="R16">
-        <v>1.443239148318</v>
+        <v>0.8904470211559998</v>
       </c>
       <c r="S16">
-        <v>0.001453403692381956</v>
+        <v>0.0004600025907641755</v>
       </c>
       <c r="T16">
-        <v>0.001831395229934781</v>
+        <v>0.0005531051242828097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H17">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I17">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J17">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>8.6672064017185</v>
+        <v>4.643948544144665</v>
       </c>
       <c r="R17">
-        <v>52.00323841031101</v>
+        <v>27.86369126486799</v>
       </c>
       <c r="S17">
-        <v>0.07855423559856725</v>
+        <v>0.02159146450979068</v>
       </c>
       <c r="T17">
-        <v>0.06598939813737653</v>
+        <v>0.01730765565370189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H18">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I18">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J18">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.4072994672063333</v>
+        <v>0.662133486642222</v>
       </c>
       <c r="R18">
-        <v>3.665695204857</v>
+        <v>5.959201379779999</v>
       </c>
       <c r="S18">
-        <v>0.003691512215487722</v>
+        <v>0.003078507770204558</v>
       </c>
       <c r="T18">
-        <v>0.004651576088684857</v>
+        <v>0.003701584419374525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H19">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I19">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J19">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>0.1124662247506667</v>
+        <v>0.03898507476622222</v>
       </c>
       <c r="R19">
-        <v>1.012196022756</v>
+        <v>0.350865672896</v>
       </c>
       <c r="S19">
-        <v>0.001019324786611009</v>
+        <v>0.0001812562844366007</v>
       </c>
       <c r="T19">
-        <v>0.001284423977824254</v>
+        <v>0.000217941771944807</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H20">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I20">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J20">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>0.209235352041</v>
+        <v>0.58895908573425</v>
       </c>
       <c r="R20">
-        <v>0.8369414081639999</v>
+        <v>2.355836342937</v>
       </c>
       <c r="S20">
-        <v>0.001896380722688102</v>
+        <v>0.002738292441543834</v>
       </c>
       <c r="T20">
-        <v>0.00106203500953587</v>
+        <v>0.001463338213607038</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H21">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I21">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J21">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>18.3969304053975</v>
+        <v>11.0120348440575</v>
       </c>
       <c r="R21">
-        <v>110.381582432385</v>
+        <v>66.072209064345</v>
       </c>
       <c r="S21">
-        <v>0.1667384781640253</v>
+        <v>0.05119909431723436</v>
       </c>
       <c r="T21">
-        <v>0.1400684729034117</v>
+        <v>0.04104104628114864</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H22">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I22">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J22">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>0.148763652147</v>
+        <v>0.06119106720649999</v>
       </c>
       <c r="R22">
-        <v>0.8925819128820001</v>
+        <v>0.367146403239</v>
       </c>
       <c r="S22">
-        <v>0.001348302375369956</v>
+        <v>0.0002845003004116412</v>
       </c>
       <c r="T22">
-        <v>0.001132639908973684</v>
+        <v>0.0002280546199479252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H23">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I23">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J23">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>8.04044673927225</v>
+        <v>2.87216807564175</v>
       </c>
       <c r="R23">
-        <v>32.161786957089</v>
+        <v>11.488672302567</v>
       </c>
       <c r="S23">
-        <v>0.07287367096153273</v>
+        <v>0.01335379031052434</v>
       </c>
       <c r="T23">
-        <v>0.04081163075990324</v>
+        <v>0.007136239855692146</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H24">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I24">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J24">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>0.3778460464905</v>
+        <v>0.4095132932825</v>
       </c>
       <c r="R24">
-        <v>2.267076278943</v>
+        <v>2.457079759695</v>
       </c>
       <c r="S24">
-        <v>0.003424564499827397</v>
+        <v>0.001903981418860691</v>
       </c>
       <c r="T24">
-        <v>0.002876801594519718</v>
+        <v>0.001526226011845783</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H25">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I25">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J25">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>0.104333351274</v>
+        <v>0.024111310904</v>
       </c>
       <c r="R25">
-        <v>0.6260001076439999</v>
+        <v>0.144667865424</v>
       </c>
       <c r="S25">
-        <v>0.0009456134164684061</v>
+        <v>0.0001121025585704741</v>
       </c>
       <c r="T25">
-        <v>0.0007943614974787765</v>
+        <v>8.986108750320812E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H26">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I26">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J26">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>0.2468038428546666</v>
+        <v>3.869616831144167</v>
       </c>
       <c r="R26">
-        <v>1.480823057128</v>
+        <v>23.217700986865</v>
       </c>
       <c r="S26">
-        <v>0.002236878449599767</v>
+        <v>0.01799130495997486</v>
       </c>
       <c r="T26">
-        <v>0.001879087250621134</v>
+        <v>0.01442177814602547</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H27">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I27">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J27">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>21.70012417353</v>
+        <v>72.351978957225</v>
       </c>
       <c r="R27">
-        <v>195.30111756177</v>
+        <v>651.167810615025</v>
       </c>
       <c r="S27">
-        <v>0.1966765977221509</v>
+        <v>0.3363915794970923</v>
       </c>
       <c r="T27">
-        <v>0.2478269353491432</v>
+        <v>0.4044757793131978</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H28">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I28">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J28">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>0.1754743673515556</v>
+        <v>0.4020414818505555</v>
       </c>
       <c r="R28">
-        <v>1.579269306164</v>
+        <v>3.618373336655</v>
       </c>
       <c r="S28">
-        <v>0.001590391892791493</v>
+        <v>0.001869242155532701</v>
       </c>
       <c r="T28">
-        <v>0.002004010407742823</v>
+        <v>0.002247568677891673</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H29">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I29">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J29">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>9.484119839996334</v>
+        <v>18.87090325386917</v>
       </c>
       <c r="R29">
-        <v>56.904719039978</v>
+        <v>113.225419523215</v>
       </c>
       <c r="S29">
-        <v>0.08595823727105409</v>
+        <v>0.08773793120239123</v>
       </c>
       <c r="T29">
-        <v>0.07220912149732796</v>
+        <v>0.07033047250364101</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H30">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I30">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J30">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>0.4456888158317777</v>
+        <v>2.690610554530555</v>
       </c>
       <c r="R30">
-        <v>4.011199342486</v>
+        <v>24.215494990775</v>
       </c>
       <c r="S30">
-        <v>0.00403944969345072</v>
+        <v>0.01250966106656435</v>
       </c>
       <c r="T30">
-        <v>0.005090002825039615</v>
+        <v>0.01504156232568931</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.444081666666667</v>
+      </c>
+      <c r="H31">
+        <v>4.332245</v>
+      </c>
+      <c r="I31">
+        <v>0.4572362623154984</v>
+      </c>
+      <c r="J31">
+        <v>0.507402777603721</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.329104</v>
+      </c>
+      <c r="O31">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P31">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q31">
+        <v>0.1584176842755556</v>
+      </c>
+      <c r="R31">
+        <v>1.42575915848</v>
+      </c>
+      <c r="S31">
+        <v>0.0007365434339429948</v>
+      </c>
+      <c r="T31">
+        <v>0.0008856166372758055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J32">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.6796385</v>
+      </c>
+      <c r="N32">
+        <v>5.359277000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.03934793987875059</v>
+      </c>
+      <c r="P32">
+        <v>0.02842274181890429</v>
+      </c>
+      <c r="Q32">
+        <v>0.7742797581493334</v>
+      </c>
+      <c r="R32">
+        <v>4.645678548896001</v>
+      </c>
+      <c r="S32">
+        <v>0.00359991799215979</v>
+      </c>
+      <c r="T32">
+        <v>0.002885683875756309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J33">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>50.102415</v>
+      </c>
+      <c r="N33">
+        <v>150.307245</v>
+      </c>
+      <c r="O33">
+        <v>0.7357062578404556</v>
+      </c>
+      <c r="P33">
+        <v>0.7971493203553003</v>
+      </c>
+      <c r="Q33">
+        <v>14.47705941264</v>
+      </c>
+      <c r="R33">
+        <v>130.29353471376</v>
+      </c>
+      <c r="S33">
+        <v>0.06730929758217631</v>
+      </c>
+      <c r="T33">
+        <v>0.08093240810390152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J34">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2784063333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.8352189999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004088131912518571</v>
+      </c>
+      <c r="P34">
+        <v>0.00442955532980352</v>
+      </c>
+      <c r="Q34">
+        <v>0.08044532441244444</v>
+      </c>
+      <c r="R34">
+        <v>0.724007919712</v>
+      </c>
+      <c r="S34">
+        <v>0.0003740205884106765</v>
+      </c>
+      <c r="T34">
+        <v>0.0004497207367757457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J35">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>13.0677535</v>
+      </c>
+      <c r="N35">
+        <v>26.135507</v>
+      </c>
+      <c r="O35">
+        <v>0.1918875173156127</v>
+      </c>
+      <c r="P35">
+        <v>0.1386087652806835</v>
+      </c>
+      <c r="Q35">
+        <v>3.775918661989333</v>
+      </c>
+      <c r="R35">
+        <v>22.655511971936</v>
+      </c>
+      <c r="S35">
+        <v>0.01755566690871141</v>
+      </c>
+      <c r="T35">
+        <v>0.01407257194106894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.4331153333333333</v>
-      </c>
-      <c r="H31">
-        <v>1.299346</v>
-      </c>
-      <c r="I31">
-        <v>0.291616954615029</v>
-      </c>
-      <c r="J31">
-        <v>0.3304146426000344</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2841426666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.852428</v>
-      </c>
-      <c r="O31">
-        <v>0.003824879069375389</v>
-      </c>
-      <c r="P31">
-        <v>0.00425370152817691</v>
-      </c>
-      <c r="Q31">
-        <v>0.1230665457875555</v>
-      </c>
-      <c r="R31">
-        <v>1.107598912088</v>
-      </c>
-      <c r="S31">
-        <v>0.001115399585982017</v>
-      </c>
-      <c r="T31">
-        <v>0.001405485270159794</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J36">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.863198333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.589594999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.02735929342789644</v>
+      </c>
+      <c r="P36">
+        <v>0.02964422543511714</v>
+      </c>
+      <c r="Q36">
+        <v>0.5383699162844444</v>
+      </c>
+      <c r="R36">
+        <v>4.84532924656</v>
+      </c>
+      <c r="S36">
+        <v>0.002503084353777123</v>
+      </c>
+      <c r="T36">
+        <v>0.003009697793845715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J37">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.329104</v>
+      </c>
+      <c r="O37">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P37">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q37">
+        <v>0.03169812713244444</v>
+      </c>
+      <c r="R37">
+        <v>0.285283144192</v>
+      </c>
+      <c r="S37">
+        <v>0.0001473765224789035</v>
+      </c>
+      <c r="T37">
+        <v>0.0001772048927955962</v>
       </c>
     </row>
   </sheetData>
